--- a/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +415,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-437</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +455,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -566,47 +590,49 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Phun mày</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>500000</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1000000</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1500000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1000000</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1000000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>500000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
       </c>
       <c r="S2" t="n">
         <v/>
@@ -619,54 +645,185 @@
       </c>
       <c r="V2" t="n">
         <v/>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>535</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Phan Minh Nguyệt</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>400000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="Q4" t="n">
         <v>500000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>38000</v>
       </c>
     </row>
   </sheetData>
@@ -778,22 +935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -621,13 +621,13 @@
         <v>1000000</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P2" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="Q2" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
@@ -693,7 +693,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -768,62 +768,369 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>546</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Trâm</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>547</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nguyễn Phương Thuý</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>300000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>550</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lê Thị Hiền</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="O7" t="n">
         <v>500000</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>38000</v>
+      <c r="P7" t="n">
+        <v>6900000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,89 +1155,642 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Tiền tố</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Mã đơn thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Đơn nợ</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-21-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>862cb20b-6bc0-44dc-9c77-2530c9289295</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>138</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-437</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>132</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02e96089-5b6d-4ac0-b25a-fe2a7137c837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-196</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>600000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-04-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dfafe21b-d5c8-4925-8327-15d40efe6033</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>137</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>375900ba-870d-4372-be18-f3821db1f765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-262</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-18-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4a026544-4d22-46fc-a5d8-be541c0bfa71</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>138</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4796904d-04d7-4511-9678-3fc13f458e73</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-437</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05-05-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1b628df0-ba79-4134-9d6e-087b4c8b169d</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8148d833-ace1-4602-8ab6-de395a1093e6</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-318</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>67500000</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>51500000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2280000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 7-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,107 +455,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -590,76 +525,31 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>500000</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1500000</v>
       </c>
       <c r="L2" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M2" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="n">
-        <v/>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -693,76 +583,31 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>500000</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>400000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>900000</v>
       </c>
       <c r="L3" t="n">
-        <v>400000</v>
+        <v>900000</v>
       </c>
       <c r="M3" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>900000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>900000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -796,73 +641,28 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>1500000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M4" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,76 +697,31 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>500000</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1300000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1800000</v>
       </c>
       <c r="L5" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="M5" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1000,76 +755,31 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>500000</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1500000</v>
       </c>
       <c r="L6" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M6" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1086,51 +796,24 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>3500000</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>3700000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7200000</v>
+      </c>
       <c r="L7" t="n">
-        <v>3700000</v>
+        <v>6900000</v>
       </c>
       <c r="M7" t="n">
-        <v>7200000</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6400000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6900000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>300000</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>108000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,97 +838,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1255,339 +938,292 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-21-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-01-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>862cb20b-6bc0-44dc-9c77-2530c9289295</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>132</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-196</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02e96089-5b6d-4ac0-b25a-fe2a7137c837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6000000</v>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>lê hoàng phúc</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-196</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>30000000</v>
+      </c>
       <c r="L2" t="n">
-        <v>30000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v/>
       </c>
       <c r="N2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v/>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>3000000</v>
-      </c>
       <c r="R2" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>600000</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>600000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1020000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>137</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>07-05-2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dfafe21b-d5c8-4925-8327-15d40efe6033</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>137</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>375900ba-870d-4372-be18-f3821db1f765</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>Hút mỡ nách</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>chị Dung</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>10000000</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-262</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
       <c r="L3" t="n">
-        <v>10000000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v/>
       </c>
       <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="inlineStr">
+        <v>10000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
-      </c>
-      <c r="P3" t="n">
-        <v/>
       </c>
       <c r="Q3" t="n">
         <v/>
       </c>
       <c r="R3" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+      <c r="W3" t="n">
+        <v>1000000</v>
       </c>
       <c r="X3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-18-2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>07-06-2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4a026544-4d22-46fc-a5d8-be541c0bfa71</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>138</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-437</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4796904d-04d7-4511-9678-3fc13f458e73</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>500000</v>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Dân</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HD-LUXURY-437</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>2500000</v>
+      </c>
       <c r="L4" t="n">
-        <v>2500000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v/>
       </c>
       <c r="N4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v/>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v>2000000</v>
-      </c>
       <c r="R4" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1595,200 +1231,173 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+      <c r="U4" t="n">
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-05-2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>07-15-2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1b628df0-ba79-4134-9d6e-087b4c8b169d</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>151</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>HD-LUXURY-318</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8148d833-ace1-4602-8ab6-de395a1093e6</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Em gấm</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HD-LUXURY-318</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>25000000</v>
+      </c>
       <c r="L5" t="n">
-        <v>25000000</v>
+        <v/>
       </c>
       <c r="M5" t="n">
         <v/>
       </c>
       <c r="N5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v/>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v>10000000</v>
-      </c>
       <c r="R5" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
-        </is>
+      <c r="U5" t="n">
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>200000</v>
       </c>
       <c r="X5" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
+      <c r="C6" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>18500000</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="K6" t="n">
         <v>67500000</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>67500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51500000</v>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>15000000</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>51500000</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y6" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2280000</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
